--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455AE1A5-8251-49BB-A534-1E2DF0270F47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477DB653-B885-48F7-8846-AF88C84F2F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="454">
   <si>
     <t>type</t>
   </si>
@@ -66,9 +66,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>8. How many children have been registered for this school?</t>
-  </si>
-  <si>
     <t xml:space="preserve">9. Individual ID for the sample being read </t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>u_school</t>
   </si>
   <si>
-    <t>u_noOfKids</t>
-  </si>
-  <si>
     <t>u_UFMicroscIni</t>
   </si>
   <si>
@@ -1385,6 +1379,18 @@
   </si>
   <si>
     <t>eth_sch_sth_remaping_5_urine_202105</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-3]{3}$')</t>
+  </si>
+  <si>
+    <t>The format must be 123-123456-123</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 99 and 1000</t>
   </si>
 </sst>
 </file>
@@ -2453,13 +2459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2486,40 +2492,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -2540,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2552,7 +2558,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -2563,25 +2569,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -2589,10 +2595,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2604,7 +2610,7 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -2612,13 +2618,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2627,39 +2633,39 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2667,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2677,11 +2683,11 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -2689,10 +2695,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2704,7 +2710,7 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -2715,13 +2721,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2729,180 +2735,169 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="F11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3068,42 +3063,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,4984 +3107,4984 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -8239,7 +8234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8253,30 +8248,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C2">
         <v>202105</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8285,6 +8280,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -8507,24 +8519,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8541,22 +8554,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477DB653-B885-48F7-8846-AF88C84F2F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCEBB3E-353D-4FAD-AC84-EDC8FB0659F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="3" r:id="rId1"/>
@@ -1381,9 +1381,6 @@
     <t>eth_sch_sth_remaping_5_urine_202105</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-3]{3}$')</t>
-  </si>
-  <si>
     <t>The format must be 123-123456-123</t>
   </si>
   <si>
@@ -1391,6 +1388,9 @@
   </si>
   <si>
     <t>The code must be a two-digit number between 99 and 1000</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2465,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11:G11"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,10 +2741,10 @@
         <v>440</v>
       </c>
       <c r="F11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" t="s">
         <v>452</v>
-      </c>
-      <c r="G11" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2782,10 +2782,10 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
+        <v>453</v>
+      </c>
+      <c r="G13" t="s">
         <v>450</v>
-      </c>
-      <c r="G13" t="s">
-        <v>451</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>81</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCEBB3E-353D-4FAD-AC84-EDC8FB0659F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825D7C59-8E7E-479A-ADC1-5EFD9EBD2662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="3" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>5. Ethiopia - Reassessment Form Stool</t>
-  </si>
-  <si>
     <t>Somali</t>
   </si>
   <si>
@@ -1391,6 +1388,9 @@
   </si>
   <si>
     <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>5. Ethiopia - Reassessment Form Urine</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +2461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2525,7 +2525,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -2572,17 +2572,17 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" t="s">
         <v>442</v>
-      </c>
-      <c r="D4" t="s">
-        <v>443</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" t="s">
         <v>444</v>
-      </c>
-      <c r="G4" t="s">
-        <v>445</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2624,7 +2624,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2649,14 +2649,14 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
@@ -2683,7 +2683,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="s">
@@ -2735,16 +2735,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" t="s">
         <v>451</v>
-      </c>
-      <c r="G11" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2782,10 +2782,10 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>81</v>
@@ -3176,10 +3176,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,10 +3187,10 @@
         <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3198,10 +3198,10 @@
         <v>45</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,10 +3209,10 @@
         <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,13 +3220,13 @@
         <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3234,13 +3234,13 @@
         <v>46</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3248,13 +3248,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,13 +3262,13 @@
         <v>46</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,13 +3276,13 @@
         <v>46</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,13 +3290,13 @@
         <v>46</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,13 +3304,13 @@
         <v>46</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3318,13 +3318,13 @@
         <v>46</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,13 +3332,13 @@
         <v>46</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,13 +3346,13 @@
         <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3360,13 +3360,13 @@
         <v>46</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3374,13 +3374,13 @@
         <v>46</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,13 +3388,13 @@
         <v>46</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,13 +3402,13 @@
         <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3416,13 +3416,13 @@
         <v>46</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3430,13 +3430,13 @@
         <v>46</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3444,13 +3444,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,13 +3458,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3472,13 +3472,13 @@
         <v>46</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,13 +3486,13 @@
         <v>46</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,13 +3500,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,13 +3514,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3528,13 +3528,13 @@
         <v>46</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3542,13 +3542,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,13 +3556,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3570,13 +3570,13 @@
         <v>46</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3584,13 +3584,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,13 +3598,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3612,13 +3612,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,13 +3626,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,13 +3640,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,13 +3654,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,13 +3668,13 @@
         <v>46</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,13 +3682,13 @@
         <v>46</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,13 +3696,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,13 +3710,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,13 +3724,13 @@
         <v>46</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,13 +3738,13 @@
         <v>46</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3752,13 +3752,13 @@
         <v>46</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,13 +3766,13 @@
         <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,13 +3780,13 @@
         <v>46</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,13 +3794,13 @@
         <v>46</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3808,13 +3808,13 @@
         <v>46</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,13 +3822,13 @@
         <v>46</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3836,13 +3836,13 @@
         <v>46</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,13 +3850,13 @@
         <v>46</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3864,13 +3864,13 @@
         <v>46</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,13 +3878,13 @@
         <v>46</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,13 +3892,13 @@
         <v>46</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3906,13 +3906,13 @@
         <v>46</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,13 +3920,13 @@
         <v>46</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3934,13 +3934,13 @@
         <v>46</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,13 +3948,13 @@
         <v>46</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3962,13 +3962,13 @@
         <v>46</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3976,13 +3976,13 @@
         <v>46</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,13 +3990,13 @@
         <v>46</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,13 +4004,13 @@
         <v>46</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,13 +4018,13 @@
         <v>46</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4032,13 +4032,13 @@
         <v>46</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,13 +4046,13 @@
         <v>46</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,13 +4060,13 @@
         <v>46</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,13 +4074,13 @@
         <v>46</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4088,13 +4088,13 @@
         <v>46</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,13 +4102,13 @@
         <v>46</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,13 +4116,13 @@
         <v>46</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,13 +4130,13 @@
         <v>46</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4144,13 +4144,13 @@
         <v>46</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,13 +4158,13 @@
         <v>46</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,13 +4172,13 @@
         <v>46</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,13 +4186,13 @@
         <v>46</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,13 +4200,13 @@
         <v>46</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,13 +4214,13 @@
         <v>46</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,13 +4228,13 @@
         <v>46</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,13 +4242,13 @@
         <v>46</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,13 +4256,13 @@
         <v>46</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,13 +4270,13 @@
         <v>46</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,13 +4284,13 @@
         <v>46</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,13 +4298,13 @@
         <v>46</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,13 +4312,13 @@
         <v>46</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,13 +4326,13 @@
         <v>46</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,13 +4340,13 @@
         <v>46</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,13 +4354,13 @@
         <v>46</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,13 +4368,13 @@
         <v>46</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,13 +4382,13 @@
         <v>46</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,13 +4396,13 @@
         <v>46</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,13 +4410,13 @@
         <v>46</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,13 +4424,13 @@
         <v>46</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,13 +4438,13 @@
         <v>46</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,13 +4452,13 @@
         <v>46</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +4466,13 @@
         <v>46</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,13 +4480,13 @@
         <v>46</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,13 +4494,13 @@
         <v>46</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,13 +4508,13 @@
         <v>46</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,13 +4522,13 @@
         <v>46</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +4536,13 @@
         <v>46</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4550,13 @@
         <v>46</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +4564,13 @@
         <v>46</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,13 +4578,13 @@
         <v>46</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,13 +4592,13 @@
         <v>46</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4606,13 @@
         <v>46</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,13 +4620,13 @@
         <v>46</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,13 +4634,13 @@
         <v>46</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,13 +4648,13 @@
         <v>46</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +4662,13 @@
         <v>46</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,13 +4676,13 @@
         <v>46</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,13 +4690,13 @@
         <v>46</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,13 +4704,13 @@
         <v>46</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,13 +4718,13 @@
         <v>46</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,13 +4732,13 @@
         <v>46</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,13 +4746,13 @@
         <v>46</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,13 +4760,13 @@
         <v>46</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4774,13 +4774,13 @@
         <v>46</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,13 +4788,13 @@
         <v>46</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,13 +4802,13 @@
         <v>46</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,13 +4816,13 @@
         <v>46</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,13 +4830,13 @@
         <v>46</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,13 +4844,13 @@
         <v>46</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,13 +4858,13 @@
         <v>46</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,13 +4872,13 @@
         <v>46</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,13 +4886,13 @@
         <v>46</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,13 +4900,13 @@
         <v>46</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4914,13 +4914,13 @@
         <v>46</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,13 +4928,13 @@
         <v>46</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,13 +4942,13 @@
         <v>46</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,13 +4956,13 @@
         <v>46</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,13 +4970,13 @@
         <v>46</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,13 +4984,13 @@
         <v>46</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,13 +4998,13 @@
         <v>46</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,13 +5012,13 @@
         <v>46</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,13 +5026,13 @@
         <v>46</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,13 +5040,13 @@
         <v>46</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,13 +5054,13 @@
         <v>46</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5068,13 +5068,13 @@
         <v>46</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,13 +5082,13 @@
         <v>46</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,13 +5096,13 @@
         <v>46</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,13 +5110,13 @@
         <v>46</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,13 +5124,13 @@
         <v>46</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,13 +5138,13 @@
         <v>46</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,13 +5152,13 @@
         <v>46</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,13 +5166,13 @@
         <v>46</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5180,13 +5180,13 @@
         <v>47</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5194,13 +5194,13 @@
         <v>47</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5208,13 +5208,13 @@
         <v>47</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,13 +5222,13 @@
         <v>47</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,13 +5236,13 @@
         <v>47</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5250,13 +5250,13 @@
         <v>47</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5264,13 +5264,13 @@
         <v>47</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5278,13 +5278,13 @@
         <v>47</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5292,13 +5292,13 @@
         <v>47</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5306,13 +5306,13 @@
         <v>47</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5320,13 +5320,13 @@
         <v>47</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5334,13 +5334,13 @@
         <v>47</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,13 +5348,13 @@
         <v>47</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5362,13 +5362,13 @@
         <v>47</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5376,13 +5376,13 @@
         <v>47</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5390,13 +5390,13 @@
         <v>47</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5404,13 +5404,13 @@
         <v>47</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5418,13 +5418,13 @@
         <v>47</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5432,13 +5432,13 @@
         <v>47</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5446,13 +5446,13 @@
         <v>47</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5460,13 +5460,13 @@
         <v>47</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,13 +5474,13 @@
         <v>47</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5488,13 +5488,13 @@
         <v>47</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5502,13 +5502,13 @@
         <v>47</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,13 +5516,13 @@
         <v>47</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5530,13 +5530,13 @@
         <v>47</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5544,13 +5544,13 @@
         <v>47</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5558,13 +5558,13 @@
         <v>47</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,13 +5572,13 @@
         <v>47</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5586,13 +5586,13 @@
         <v>47</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5600,13 +5600,13 @@
         <v>47</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,13 +5614,13 @@
         <v>47</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,13 +5628,13 @@
         <v>47</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5642,13 +5642,13 @@
         <v>47</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5656,13 +5656,13 @@
         <v>47</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5670,13 +5670,13 @@
         <v>47</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5684,13 +5684,13 @@
         <v>47</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5698,13 +5698,13 @@
         <v>47</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5712,13 +5712,13 @@
         <v>47</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5726,13 +5726,13 @@
         <v>47</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5740,13 +5740,13 @@
         <v>47</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5754,13 +5754,13 @@
         <v>47</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5768,13 +5768,13 @@
         <v>47</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5782,13 +5782,13 @@
         <v>47</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5796,13 +5796,13 @@
         <v>47</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,13 +5810,13 @@
         <v>47</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5824,13 +5824,13 @@
         <v>47</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5838,13 +5838,13 @@
         <v>47</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5852,13 +5852,13 @@
         <v>47</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5866,13 +5866,13 @@
         <v>47</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5880,13 +5880,13 @@
         <v>47</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5894,13 +5894,13 @@
         <v>47</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,13 +5908,13 @@
         <v>47</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,13 +5922,13 @@
         <v>47</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5936,13 +5936,13 @@
         <v>47</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5950,13 +5950,13 @@
         <v>47</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5964,13 +5964,13 @@
         <v>47</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5978,13 +5978,13 @@
         <v>47</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5992,13 +5992,13 @@
         <v>47</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6006,13 +6006,13 @@
         <v>47</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6020,13 +6020,13 @@
         <v>47</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6034,13 +6034,13 @@
         <v>47</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6048,13 +6048,13 @@
         <v>47</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6062,13 +6062,13 @@
         <v>47</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6076,13 +6076,13 @@
         <v>47</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6090,13 +6090,13 @@
         <v>47</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6104,13 +6104,13 @@
         <v>47</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6118,13 +6118,13 @@
         <v>47</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6132,13 +6132,13 @@
         <v>47</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6146,13 +6146,13 @@
         <v>47</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6160,13 +6160,13 @@
         <v>47</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6174,13 +6174,13 @@
         <v>47</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6188,13 +6188,13 @@
         <v>47</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6202,13 +6202,13 @@
         <v>47</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6216,13 +6216,13 @@
         <v>47</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6230,13 +6230,13 @@
         <v>47</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6244,13 +6244,13 @@
         <v>47</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6258,13 +6258,13 @@
         <v>47</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6272,13 +6272,13 @@
         <v>47</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6286,13 +6286,13 @@
         <v>47</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,13 +6300,13 @@
         <v>47</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,13 +6314,13 @@
         <v>47</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6328,13 +6328,13 @@
         <v>47</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,13 +6342,13 @@
         <v>47</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6356,13 +6356,13 @@
         <v>47</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6370,13 +6370,13 @@
         <v>47</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,13 +6384,13 @@
         <v>47</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6398,13 +6398,13 @@
         <v>47</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6412,13 +6412,13 @@
         <v>47</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,13 +6426,13 @@
         <v>47</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6440,13 +6440,13 @@
         <v>47</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6454,13 +6454,13 @@
         <v>47</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6468,13 +6468,13 @@
         <v>47</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6482,13 +6482,13 @@
         <v>47</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6496,13 +6496,13 @@
         <v>47</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6510,13 +6510,13 @@
         <v>47</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6524,13 +6524,13 @@
         <v>47</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6538,13 +6538,13 @@
         <v>47</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6552,13 +6552,13 @@
         <v>47</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6566,13 +6566,13 @@
         <v>47</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6580,13 +6580,13 @@
         <v>47</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6594,13 +6594,13 @@
         <v>47</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6608,13 +6608,13 @@
         <v>47</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6622,13 +6622,13 @@
         <v>47</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6636,13 +6636,13 @@
         <v>47</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6650,13 +6650,13 @@
         <v>47</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,13 +6664,13 @@
         <v>47</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,13 +6678,13 @@
         <v>47</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6692,13 +6692,13 @@
         <v>47</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6706,13 +6706,13 @@
         <v>47</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6720,13 +6720,13 @@
         <v>47</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6734,13 +6734,13 @@
         <v>47</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6748,13 +6748,13 @@
         <v>47</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6762,13 +6762,13 @@
         <v>47</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6776,13 +6776,13 @@
         <v>47</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6790,13 +6790,13 @@
         <v>47</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6804,13 +6804,13 @@
         <v>47</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6818,13 +6818,13 @@
         <v>47</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6832,13 +6832,13 @@
         <v>47</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6846,13 +6846,13 @@
         <v>47</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6860,13 +6860,13 @@
         <v>47</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6874,13 +6874,13 @@
         <v>47</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6888,13 +6888,13 @@
         <v>47</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6902,13 +6902,13 @@
         <v>47</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6916,13 +6916,13 @@
         <v>47</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6930,13 +6930,13 @@
         <v>47</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6944,13 +6944,13 @@
         <v>47</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6958,13 +6958,13 @@
         <v>47</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6972,13 +6972,13 @@
         <v>47</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6986,13 +6986,13 @@
         <v>47</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7000,13 +7000,13 @@
         <v>47</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7014,13 +7014,13 @@
         <v>47</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7028,13 +7028,13 @@
         <v>47</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7042,13 +7042,13 @@
         <v>47</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,13 +7056,13 @@
         <v>47</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7070,13 +7070,13 @@
         <v>47</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7084,13 +7084,13 @@
         <v>47</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7098,13 +7098,13 @@
         <v>47</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7112,13 +7112,13 @@
         <v>47</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7126,13 +7126,13 @@
         <v>47</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7140,13 +7140,13 @@
         <v>47</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7154,13 +7154,13 @@
         <v>47</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7168,13 +7168,13 @@
         <v>47</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7182,13 +7182,13 @@
         <v>47</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7196,13 +7196,13 @@
         <v>47</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7210,13 +7210,13 @@
         <v>47</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7224,13 +7224,13 @@
         <v>47</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7238,13 +7238,13 @@
         <v>47</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7252,13 +7252,13 @@
         <v>47</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7266,13 +7266,13 @@
         <v>47</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7280,13 +7280,13 @@
         <v>47</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7294,13 +7294,13 @@
         <v>47</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7308,13 +7308,13 @@
         <v>47</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7322,13 +7322,13 @@
         <v>47</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7336,13 +7336,13 @@
         <v>47</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7350,13 +7350,13 @@
         <v>47</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7364,13 +7364,13 @@
         <v>47</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7378,13 +7378,13 @@
         <v>47</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7392,13 +7392,13 @@
         <v>47</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7406,13 +7406,13 @@
         <v>47</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7420,13 +7420,13 @@
         <v>47</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7434,13 +7434,13 @@
         <v>47</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7448,13 +7448,13 @@
         <v>47</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7462,13 +7462,13 @@
         <v>47</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7476,13 +7476,13 @@
         <v>47</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7490,13 +7490,13 @@
         <v>47</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7504,13 +7504,13 @@
         <v>47</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7518,13 +7518,13 @@
         <v>47</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7532,13 +7532,13 @@
         <v>47</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -7546,13 +7546,13 @@
         <v>47</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7560,13 +7560,13 @@
         <v>47</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7574,13 +7574,13 @@
         <v>47</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7588,13 +7588,13 @@
         <v>47</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7602,13 +7602,13 @@
         <v>47</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7616,13 +7616,13 @@
         <v>47</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7630,13 +7630,13 @@
         <v>47</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7644,13 +7644,13 @@
         <v>47</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7658,13 +7658,13 @@
         <v>47</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7672,13 +7672,13 @@
         <v>47</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7686,13 +7686,13 @@
         <v>47</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7700,13 +7700,13 @@
         <v>47</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7714,13 +7714,13 @@
         <v>47</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7728,13 +7728,13 @@
         <v>47</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7742,13 +7742,13 @@
         <v>47</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7756,13 +7756,13 @@
         <v>47</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7770,13 +7770,13 @@
         <v>47</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7784,13 +7784,13 @@
         <v>47</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7798,13 +7798,13 @@
         <v>47</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7812,13 +7812,13 @@
         <v>47</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7826,13 +7826,13 @@
         <v>47</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7840,13 +7840,13 @@
         <v>47</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -7854,13 +7854,13 @@
         <v>47</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -7868,13 +7868,13 @@
         <v>47</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7882,13 +7882,13 @@
         <v>47</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7896,13 +7896,13 @@
         <v>47</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -7910,13 +7910,13 @@
         <v>47</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -7924,13 +7924,13 @@
         <v>47</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -7938,13 +7938,13 @@
         <v>47</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7952,13 +7952,13 @@
         <v>47</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -7966,13 +7966,13 @@
         <v>47</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7980,13 +7980,13 @@
         <v>47</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7994,13 +7994,13 @@
         <v>47</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8008,13 +8008,13 @@
         <v>47</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8022,13 +8022,13 @@
         <v>47</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8036,13 +8036,13 @@
         <v>47</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8050,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8064,13 +8064,13 @@
         <v>47</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8078,13 +8078,13 @@
         <v>47</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -8234,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C2">
         <v>202105</v>
@@ -8280,23 +8280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -8519,25 +8502,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8554,4 +8536,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825D7C59-8E7E-479A-ADC1-5EFD9EBD2662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FA64CC-65D8-4612-BE45-E8D4512FAA86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1950" windowWidth="28005" windowHeight="14070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="452">
   <si>
     <t>type</t>
   </si>
@@ -57,9 +57,6 @@
     <t>5a. Please write the kebele name</t>
   </si>
   <si>
-    <t>6. Record the GPS coordinates of the village</t>
-  </si>
-  <si>
     <t>7. Record School name</t>
   </si>
   <si>
@@ -139,12 +136,6 @@
     <t>u_kebele_other</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>u_gps</t>
-  </si>
-  <si>
     <t>Start_Individual</t>
   </si>
   <si>
@@ -1375,9 +1366,6 @@
     <t>5. Select Kebele name</t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_5_urine_202105</t>
-  </si>
-  <si>
     <t>The format must be 123-123456-123</t>
   </si>
   <si>
@@ -1390,7 +1378,13 @@
     <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
   </si>
   <si>
-    <t>5. Ethiopia - Reassessment Form Urine</t>
+    <t>eth_sch_sth_remaping_5_urine_202105_V2</t>
+  </si>
+  <si>
+    <t>202105_V2</t>
+  </si>
+  <si>
+    <t>5. Ethiopia - Reassessment Form Urine V2</t>
   </si>
 </sst>
 </file>
@@ -2462,10 +2456,10 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2492,40 +2486,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -2546,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2558,7 +2552,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -2566,28 +2560,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -2595,10 +2589,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2610,7 +2604,7 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -2618,13 +2612,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2633,39 +2627,39 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2673,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2683,35 +2677,27 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2721,41 +2707,41 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2773,22 +2759,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2796,69 +2782,69 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2866,13 +2852,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2880,24 +2866,24 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3063,42 +3049,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,4984 +3093,4984 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8235,7 +8221,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,30 +8234,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C2">
-        <v>202105</v>
+        <v>449</v>
+      </c>
+      <c r="C2" t="s">
+        <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -8503,20 +8489,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8539,14 +8525,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8554,4 +8532,12 @@
     <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\Ethiopia\Formulaires_27.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F237E-2924-4C2F-A4F6-6F24BACB95E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="452">
   <si>
     <t>type</t>
   </si>
@@ -1363,31 +1362,34 @@
     <t>The format must be 123-123456-123</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 99 and 1000</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
   </si>
   <si>
     <t>5. Ethiopia – Reassessment Urine Form V3</t>
   </si>
   <si>
+    <t>eth_sch_sth_remaping_5_urine_202105_V3</t>
+  </si>
+  <si>
+    <t>202105_V3</t>
+  </si>
+  <si>
     <t>1. Reporter's code</t>
   </si>
   <si>
     <t>2. Date of survey</t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_5_urine_202105_v3</t>
+    <t>. &gt; 99 and . &lt; 10000</t>
+  </si>
+  <si>
+    <t>The code must be between 99 and 10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2449,27 +2451,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="27.703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="54.29296875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1171875" style="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="27.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="54.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2513,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2542,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -2561,7 +2563,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2586,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2607,7 +2609,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2684,7 +2686,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -2699,7 +2701,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2724,13 +2726,13 @@
         <v>435</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2751,7 +2753,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>5</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G13" t="s">
         <v>443</v>
@@ -2774,7 +2776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2846,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2858,10 +2860,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3025,7 +3027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3033,18 +3035,18 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:E368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.87890625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.87890625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.41015625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.5859375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.5859375" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="11"/>
+    <col min="1" max="1" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -3062,7 +3064,7 @@
       </c>
       <c r="F1" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -3084,11 +3086,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>58</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>58</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>58</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
@@ -3324,7 +3326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>42</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>42</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -3422,7 +3424,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>42</v>
       </c>
@@ -3450,7 +3452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>42</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>42</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>42</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>42</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>42</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>42</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>42</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>42</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>42</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>42</v>
       </c>
@@ -3674,7 +3676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>42</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>42</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>42</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>42</v>
       </c>
@@ -3730,7 +3732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>42</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>42</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>42</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>42</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>42</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>42</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>42</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>42</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>42</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>42</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>42</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>42</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>42</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>42</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>42</v>
       </c>
@@ -3968,7 +3970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>42</v>
       </c>
@@ -3982,7 +3984,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>42</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>42</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>42</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>42</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>42</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>42</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>42</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>42</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>42</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>42</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>42</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>42</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>42</v>
       </c>
@@ -4164,7 +4166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>42</v>
       </c>
@@ -4178,7 +4180,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>42</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>42</v>
       </c>
@@ -4206,7 +4208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +4222,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>42</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>42</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>42</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>42</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>42</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>42</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>42</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>42</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>42</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>42</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>42</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>42</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>42</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>42</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>42</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>42</v>
       </c>
@@ -4444,7 +4446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>42</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>42</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>42</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>42</v>
       </c>
@@ -4500,7 +4502,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>42</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>42</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>42</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>42</v>
       </c>
@@ -4556,7 +4558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>42</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>42</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>42</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>42</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>42</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>42</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>42</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>42</v>
       </c>
@@ -4668,7 +4670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>42</v>
       </c>
@@ -4682,7 +4684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>42</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>42</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>42</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>42</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>42</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>42</v>
       </c>
@@ -4766,7 +4768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>42</v>
       </c>
@@ -4780,7 +4782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>42</v>
       </c>
@@ -4794,7 +4796,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>42</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>42</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>42</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>42</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>42</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>42</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>42</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>42</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>42</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>42</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>42</v>
       </c>
@@ -4948,7 +4950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>42</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>42</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>42</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>42</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>42</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>42</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>42</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>42</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>42</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>42</v>
       </c>
@@ -5088,7 +5090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>42</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>42</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>42</v>
       </c>
@@ -5130,7 +5132,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>42</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>42</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>43</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>43</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>43</v>
       </c>
@@ -5200,7 +5202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>43</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>43</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>43</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>43</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>43</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>43</v>
       </c>
@@ -5284,7 +5286,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>43</v>
       </c>
@@ -5298,7 +5300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>43</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>43</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>43</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>43</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>43</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>43</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>43</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>43</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>43</v>
       </c>
@@ -5438,7 +5440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>43</v>
       </c>
@@ -5452,7 +5454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>43</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>43</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>43</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>43</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>43</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>43</v>
       </c>
@@ -5536,7 +5538,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>43</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>43</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>43</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>43</v>
       </c>
@@ -5592,7 +5594,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>43</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>43</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>43</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>43</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>43</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
         <v>43</v>
       </c>
@@ -5690,7 +5692,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>43</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>43</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>43</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
         <v>43</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>43</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>43</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
         <v>43</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
         <v>43</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>43</v>
       </c>
@@ -5816,7 +5818,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>43</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>43</v>
       </c>
@@ -5844,7 +5846,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>43</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
         <v>43</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>43</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>43</v>
       </c>
@@ -5900,7 +5902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>43</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
         <v>43</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>43</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>43</v>
       </c>
@@ -5956,7 +5958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>43</v>
       </c>
@@ -5970,7 +5972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>43</v>
       </c>
@@ -5984,7 +5986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>43</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>43</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>43</v>
       </c>
@@ -6026,7 +6028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>43</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>43</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
         <v>43</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
         <v>43</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
         <v>43</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>43</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>43</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>43</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>43</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>43</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>43</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>43</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
         <v>43</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>43</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>43</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>43</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>43</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>43</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
         <v>43</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
         <v>43</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
         <v>43</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
         <v>43</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
         <v>43</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>43</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>43</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>43</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>43</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>43</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>43</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
         <v>43</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
         <v>43</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>43</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>43</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>43</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
         <v>43</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
         <v>43</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
         <v>43</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
         <v>43</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
         <v>43</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
         <v>43</v>
       </c>
@@ -6586,7 +6588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
         <v>43</v>
       </c>
@@ -6600,7 +6602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
         <v>43</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
         <v>43</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
         <v>43</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
         <v>43</v>
       </c>
@@ -6656,7 +6658,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
         <v>43</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
         <v>43</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
         <v>43</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
         <v>43</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
         <v>43</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
         <v>43</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
         <v>43</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
         <v>43</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>43</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>43</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>43</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>43</v>
       </c>
@@ -6824,7 +6826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
         <v>43</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>43</v>
       </c>
@@ -6852,7 +6854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>43</v>
       </c>
@@ -6866,7 +6868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>43</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
         <v>43</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
         <v>43</v>
       </c>
@@ -6908,7 +6910,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
         <v>43</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
         <v>43</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>43</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>43</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
         <v>43</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
         <v>43</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
         <v>43</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
         <v>43</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
         <v>43</v>
       </c>
@@ -7034,7 +7036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
         <v>43</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
         <v>43</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
         <v>43</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>43</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
         <v>43</v>
       </c>
@@ -7104,7 +7106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>43</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>43</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>43</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>43</v>
       </c>
@@ -7160,7 +7162,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>43</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
         <v>43</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>43</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>43</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
         <v>43</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
         <v>43</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>43</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>43</v>
       </c>
@@ -7272,7 +7274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>43</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
         <v>43</v>
       </c>
@@ -7300,7 +7302,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>43</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
         <v>43</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
         <v>43</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
         <v>43</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
         <v>43</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
         <v>43</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
         <v>43</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>43</v>
       </c>
@@ -7412,7 +7414,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
         <v>43</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>43</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
         <v>43</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
         <v>43</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
         <v>43</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
         <v>43</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
         <v>43</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
         <v>43</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="26" t="s">
         <v>43</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
         <v>43</v>
       </c>
@@ -7552,7 +7554,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
         <v>43</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
         <v>43</v>
       </c>
@@ -7580,7 +7582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
         <v>43</v>
       </c>
@@ -7594,7 +7596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
         <v>43</v>
       </c>
@@ -7608,7 +7610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>43</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
         <v>43</v>
       </c>
@@ -7636,7 +7638,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
         <v>43</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
         <v>43</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
         <v>43</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
         <v>43</v>
       </c>
@@ -7692,7 +7694,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
         <v>43</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>43</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
         <v>43</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
         <v>43</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>43</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
         <v>43</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
         <v>43</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
         <v>43</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
         <v>43</v>
       </c>
@@ -7818,7 +7820,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
         <v>43</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
         <v>43</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
         <v>43</v>
       </c>
@@ -7860,7 +7862,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
         <v>43</v>
       </c>
@@ -7874,7 +7876,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
         <v>43</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
         <v>43</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
         <v>43</v>
       </c>
@@ -7916,7 +7918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
         <v>43</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>43</v>
       </c>
@@ -7944,7 +7946,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
         <v>43</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
         <v>43</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
         <v>43</v>
       </c>
@@ -7986,7 +7988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
         <v>43</v>
       </c>
@@ -8000,7 +8002,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
         <v>43</v>
       </c>
@@ -8014,7 +8016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>43</v>
       </c>
@@ -8028,7 +8030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
         <v>43</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
         <v>43</v>
       </c>
@@ -8056,7 +8058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
         <v>43</v>
       </c>
@@ -8071,7 +8073,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+  <sortState ref="A2:B21">
     <sortCondition ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="B1:C1">
@@ -8214,22 +8216,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5859375" customWidth="1"/>
-    <col min="2" max="2" width="36.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>78</v>
       </c>
@@ -8243,15 +8245,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
         <v>447</v>
-      </c>
-      <c r="B2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2">
-        <v>2021053</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -8263,6 +8265,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -8485,24 +8504,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8519,22 +8539,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_5_urine_202105.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="453">
   <si>
     <t>type</t>
   </si>
@@ -1365,15 +1365,6 @@
     <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
   </si>
   <si>
-    <t>5. Ethiopia – Reassessment Urine Form V3</t>
-  </si>
-  <si>
-    <t>eth_sch_sth_remaping_5_urine_202105_V3</t>
-  </si>
-  <si>
-    <t>202105_V3</t>
-  </si>
-  <si>
     <t>1. Reporter's code</t>
   </si>
   <si>
@@ -1384,6 +1375,18 @@
   </si>
   <si>
     <t>The code must be between 99 and 10000</t>
+  </si>
+  <si>
+    <t>Malka Karro</t>
+  </si>
+  <si>
+    <t>5. Ethiopia – Reassessment Urine Form V3.1</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_5_urine_202105_V3.1</t>
+  </si>
+  <si>
+    <t>202105_V3.1</t>
   </si>
 </sst>
 </file>
@@ -2454,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F11" sqref="F11:G11"/>
@@ -2521,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
         <v>437</v>
@@ -2571,7 +2574,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2726,10 +2729,10 @@
         <v>435</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3028,11 +3031,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:E368"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A315" sqref="A315:XFD315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,13 +7324,13 @@
         <v>43</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7335,13 +7338,13 @@
         <v>43</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7349,13 +7352,13 @@
         <v>43</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7363,13 +7366,13 @@
         <v>43</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,13 +7380,13 @@
         <v>43</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7391,13 +7394,13 @@
         <v>43</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7405,13 +7408,13 @@
         <v>43</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7419,13 +7422,13 @@
         <v>43</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7433,13 +7436,13 @@
         <v>43</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7447,13 +7450,13 @@
         <v>43</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7461,13 +7464,13 @@
         <v>43</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7475,13 +7478,13 @@
         <v>43</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7489,13 +7492,13 @@
         <v>43</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7503,13 +7506,13 @@
         <v>43</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7517,41 +7520,41 @@
         <v>43</v>
       </c>
       <c r="B329" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B330" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C329" s="11" t="s">
+      <c r="C330" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="E329" s="11" t="s">
+      <c r="E330" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B330" s="26" t="s">
+    <row r="331" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B331" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="C330" s="26" t="s">
+      <c r="C331" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="E330" s="26" t="s">
+      <c r="E331" s="26" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C331" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E331" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7559,13 +7562,13 @@
         <v>43</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7573,13 +7576,13 @@
         <v>43</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7587,13 +7590,13 @@
         <v>43</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7601,13 +7604,13 @@
         <v>43</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7615,13 +7618,13 @@
         <v>43</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7629,13 +7632,13 @@
         <v>43</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7643,13 +7646,13 @@
         <v>43</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7657,13 +7660,13 @@
         <v>43</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7671,13 +7674,13 @@
         <v>43</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7685,13 +7688,13 @@
         <v>43</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7699,13 +7702,13 @@
         <v>43</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7713,13 +7716,13 @@
         <v>43</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7727,13 +7730,13 @@
         <v>43</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7741,13 +7744,13 @@
         <v>43</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7755,13 +7758,13 @@
         <v>43</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7769,13 +7772,13 @@
         <v>43</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7783,13 +7786,13 @@
         <v>43</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7797,13 +7800,13 @@
         <v>43</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7811,13 +7814,13 @@
         <v>43</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7825,13 +7828,13 @@
         <v>43</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -7839,13 +7842,13 @@
         <v>43</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -7853,13 +7856,13 @@
         <v>43</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7867,13 +7870,13 @@
         <v>43</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7881,13 +7884,13 @@
         <v>43</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -7895,13 +7898,13 @@
         <v>43</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -7909,13 +7912,13 @@
         <v>43</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -7923,13 +7926,13 @@
         <v>43</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7937,13 +7940,13 @@
         <v>43</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -7951,13 +7954,13 @@
         <v>43</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7965,13 +7968,13 @@
         <v>43</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7979,13 +7982,13 @@
         <v>43</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -7993,13 +7996,13 @@
         <v>43</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8007,13 +8010,13 @@
         <v>43</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8021,13 +8024,13 @@
         <v>43</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8035,13 +8038,13 @@
         <v>43</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8049,13 +8052,13 @@
         <v>43</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8063,12 +8066,26 @@
         <v>43</v>
       </c>
       <c r="B368" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B369" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C368" s="11" t="s">
+      <c r="C369" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="E368" s="11" t="s">
+      <c r="E369" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8219,8 +8236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8247,13 +8264,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -8265,20 +8282,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8505,19 +8522,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
